--- a/dist/checklists/core/xlsx/tol/stx_seq_tol_core.xlsx
+++ b/dist/checklists/core/xlsx/tol/stx_seq_tol_core.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Library Preparation" sheetId="5" r:id="rId5"/>
     <sheet name="Sequencing" sheetId="6" r:id="rId6"/>
     <sheet name="File" sheetId="7" r:id="rId7"/>
+    <sheet name="Analysis Derived Data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="382">
   <si>
     <t>Study ID</t>
   </si>
@@ -109,9 +110,15 @@
     <t>Sample ID</t>
   </si>
   <si>
+    <t>Organism</t>
+  </si>
+  <si>
     <t>Scientific Name</t>
   </si>
   <si>
+    <t>Strain</t>
+  </si>
+  <si>
     <t>Culture or Strain ID</t>
   </si>
   <si>
@@ -133,9 +140,18 @@
     <t>Decimal Longitude</t>
   </si>
   <si>
+    <t>Accession Number</t>
+  </si>
+  <si>
+    <t>Organism (optional)</t>
+  </si>
+  <si>
     <t>Scientific Name (optional)</t>
   </si>
   <si>
+    <t>Strain (optional)</t>
+  </si>
+  <si>
     <t>Culture or Strain ID (optional)</t>
   </si>
   <si>
@@ -157,6 +173,9 @@
     <t>Decimal Longitude (optional)</t>
   </si>
   <si>
+    <t>Accession Number (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the study.</t>
   </si>
   <si>
@@ -205,6 +224,12 @@
     <t>e.g. 0.1218</t>
   </si>
   <si>
+    <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
+  </si>
+  <si>
+    <t>e.g. accession123</t>
+  </si>
+  <si>
     <t>Abdomen</t>
   </si>
   <si>
@@ -700,15 +725,60 @@
     <t>Library Preparation Kit Version</t>
   </si>
   <si>
+    <t>Amplification Method</t>
+  </si>
+  <si>
+    <t>cDNA Amplification Cycles</t>
+  </si>
+  <si>
     <t>Average Size Distribution</t>
   </si>
   <si>
+    <t>Library Construction Method</t>
+  </si>
+  <si>
+    <t>Input Molecule</t>
+  </si>
+  <si>
+    <t>Primer</t>
+  </si>
+  <si>
     <t>Primeness</t>
   </si>
   <si>
+    <t>End Bias</t>
+  </si>
+  <si>
+    <t>Library Strand</t>
+  </si>
+  <si>
+    <t>Spike In</t>
+  </si>
+  <si>
+    <t>Spike In Dilution Or Concentration</t>
+  </si>
+  <si>
     <t>Average Size Distribution (optional)</t>
   </si>
   <si>
+    <t>Library Construction Method (optional)</t>
+  </si>
+  <si>
+    <t>Input Molecule (optional)</t>
+  </si>
+  <si>
+    <t>Primer (optional)</t>
+  </si>
+  <si>
+    <t>End Bias (optional)</t>
+  </si>
+  <si>
+    <t>Library Strand (optional)</t>
+  </si>
+  <si>
+    <t>Spike In Dilution Or Concentration (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
@@ -724,16 +794,70 @@
     <t>The version number of the library preparation kit used for sequencing.</t>
   </si>
   <si>
+    <t>The method used to amplify the Complementary DNA (cDNA).</t>
+  </si>
+  <si>
+    <t>e.g. PCR</t>
+  </si>
+  <si>
+    <t>The number of cycles used during the Complementary DNA (cDNA) amplification process.</t>
+  </si>
+  <si>
+    <t>e.g. 12</t>
+  </si>
+  <si>
     <t>The average length of RNA fragments in base pairs (BP) after library preparation, indicating the quality and suitability of the RNA for sequencing.</t>
   </si>
   <si>
     <t>e.g. 350</t>
   </si>
   <si>
+    <t>The library construction method (including version) that was used.</t>
+  </si>
+  <si>
+    <t>e.g. Smart-Seq2</t>
+  </si>
+  <si>
+    <t>The specific fraction of biological macromolecule from which the sequencing library is derived.</t>
+  </si>
+  <si>
+    <t>e.g. RNA</t>
+  </si>
+  <si>
+    <t>The type of primer used for reverse transcription. This allows users to identify content of the cDNA library input for mRNA.</t>
+  </si>
+  <si>
+    <t>e.g. Random</t>
+  </si>
+  <si>
     <t>The end from which the molecule was sequenced.</t>
   </si>
   <si>
     <t>e.g. 5'</t>
+  </si>
+  <si>
+    <t>The end bias of the library.</t>
+  </si>
+  <si>
+    <t>e.g. 3</t>
+  </si>
+  <si>
+    <t>The Complementary DNA (cDNA) strand of the library from which the reads derived from - sense (first), antisense (second), both or none.</t>
+  </si>
+  <si>
+    <t>e.g. Antisense</t>
+  </si>
+  <si>
+    <t>External RNA added to the sample as a control to assess technical variability and normalization in RNA-sequencing. State whether spike-in was used.</t>
+  </si>
+  <si>
+    <t>e.g. Yes</t>
+  </si>
+  <si>
+    <t>The final concentration or dilution (for commercial sets) of the spike in mix.</t>
+  </si>
+  <si>
+    <t>e.g. 1:1000</t>
   </si>
   <si>
     <t>Sequencing Reference</t>
@@ -997,6 +1121,55 @@
   </si>
   <si>
     <t>e.g. barcodes.tsv</t>
+  </si>
+  <si>
+    <t>File Derived From</t>
+  </si>
+  <si>
+    <t>Inferred Cell Type</t>
+  </si>
+  <si>
+    <t>Post Analysis Cell Well Quality</t>
+  </si>
+  <si>
+    <t>Other Derived Cell Attributes</t>
+  </si>
+  <si>
+    <t>File Derived From (optional)</t>
+  </si>
+  <si>
+    <t>Inferred Cell Type (optional)</t>
+  </si>
+  <si>
+    <t>Post Analysis Cell Well Quality (optional)</t>
+  </si>
+  <si>
+    <t>Other Derived Cell Attributes (optional)</t>
+  </si>
+  <si>
+    <t>The name of the file that was used to generate the analysis derived data.</t>
+  </si>
+  <si>
+    <t>e.g. file1_sequencing.json</t>
+  </si>
+  <si>
+    <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
+  </si>
+  <si>
+    <t>e.g. type II bipolar neuron</t>
+  </si>
+  <si>
+    <t>Performer defined measure of whether the read output
+from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
+  </si>
+  <si>
+    <t>e.g. Passed</t>
+  </si>
+  <si>
+    <t>Any other cell level measurement or annotation as result of the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. cluster</t>
   </si>
 </sst>
 </file>
@@ -1483,630 +1656,605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:F78"/>
+  <dimension ref="F5:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6">
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
+    <row r="5" spans="6:7">
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" t="s">
+    <row r="13" spans="6:7">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
-      <c r="D22" t="s">
+    <row r="14" spans="6:7">
+      <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
-      <c r="D23" t="s">
+    <row r="15" spans="6:7">
+      <c r="F15" t="s">
         <v>79</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
-      <c r="D24" t="s">
+    <row r="16" spans="6:7">
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
-      <c r="D26" t="s">
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
-      <c r="D27" t="s">
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
-      <c r="D28" t="s">
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
-      <c r="D29" t="s">
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
         <v>85</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
-      <c r="D30" t="s">
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
         <v>86</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
-      <c r="D31" t="s">
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
-      <c r="D32" t="s">
+    <row r="24" spans="6:7">
+      <c r="F24" t="s">
         <v>88</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
-      <c r="D33" t="s">
+    <row r="25" spans="6:7">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
-      <c r="D34" t="s">
+    <row r="26" spans="6:7">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
-      <c r="D35" t="s">
+    <row r="27" spans="6:7">
+      <c r="F27" t="s">
         <v>91</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
-      <c r="D36" t="s">
+    <row r="28" spans="6:7">
+      <c r="F28" t="s">
         <v>92</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
-      <c r="D37" t="s">
+    <row r="29" spans="6:7">
+      <c r="F29" t="s">
         <v>93</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
-      <c r="D38" t="s">
+    <row r="30" spans="6:7">
+      <c r="F30" t="s">
         <v>94</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
-      <c r="D39" t="s">
+    <row r="31" spans="6:7">
+      <c r="F31" t="s">
         <v>95</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
-      <c r="D40" t="s">
+    <row r="32" spans="6:7">
+      <c r="F32" t="s">
         <v>96</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
-      <c r="D41" t="s">
+    <row r="33" spans="6:7">
+      <c r="F33" t="s">
         <v>97</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
-      <c r="D42" t="s">
+    <row r="34" spans="6:7">
+      <c r="F34" t="s">
         <v>98</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
-      <c r="D43" t="s">
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
         <v>99</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
-      <c r="D44" t="s">
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
-      <c r="D45" t="s">
+    <row r="37" spans="6:7">
+      <c r="F37" t="s">
         <v>101</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
-      <c r="D46" t="s">
+    <row r="38" spans="6:7">
+      <c r="F38" t="s">
         <v>102</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
-      <c r="D47" t="s">
+    <row r="39" spans="6:7">
+      <c r="F39" t="s">
         <v>103</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
-      <c r="D48" t="s">
+    <row r="40" spans="6:7">
+      <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
-      <c r="D49" t="s">
+    <row r="41" spans="6:7">
+      <c r="F41" t="s">
         <v>105</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
-      <c r="D50" t="s">
+    <row r="42" spans="6:7">
+      <c r="F42" t="s">
         <v>106</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
-      <c r="D51" t="s">
+    <row r="43" spans="6:7">
+      <c r="F43" t="s">
         <v>107</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
-      <c r="D52" t="s">
+    <row r="44" spans="6:7">
+      <c r="F44" t="s">
         <v>108</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="4:5">
-      <c r="D53" t="s">
+    <row r="45" spans="6:7">
+      <c r="F45" t="s">
         <v>109</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
-      <c r="D54" t="s">
+    <row r="46" spans="6:7">
+      <c r="F46" t="s">
         <v>110</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
-      <c r="D55" t="s">
+    <row r="47" spans="6:7">
+      <c r="F47" t="s">
         <v>111</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
-      <c r="D56" t="s">
+    <row r="48" spans="6:7">
+      <c r="F48" t="s">
         <v>112</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
-      <c r="D57" t="s">
+    <row r="49" spans="6:7">
+      <c r="F49" t="s">
         <v>113</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
-      <c r="D58" t="s">
+    <row r="50" spans="6:7">
+      <c r="F50" t="s">
         <v>114</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
-      <c r="D59" t="s">
+    <row r="51" spans="6:7">
+      <c r="F51" t="s">
         <v>115</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
-      <c r="D60" t="s">
+    <row r="52" spans="6:7">
+      <c r="F52" t="s">
         <v>116</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
-      <c r="D61" t="s">
+    <row r="53" spans="6:7">
+      <c r="F53" t="s">
         <v>117</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
-      <c r="D62" t="s">
+    <row r="54" spans="6:7">
+      <c r="F54" t="s">
         <v>118</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
-      <c r="D63" t="s">
+    <row r="55" spans="6:7">
+      <c r="F55" t="s">
         <v>119</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
-      <c r="D64" t="s">
+    <row r="56" spans="6:7">
+      <c r="F56" t="s">
         <v>120</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
-      <c r="D65" t="s">
+    <row r="57" spans="6:7">
+      <c r="F57" t="s">
         <v>121</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
-      <c r="D66" t="s">
+    <row r="58" spans="6:7">
+      <c r="F58" t="s">
         <v>122</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
-      <c r="D67" t="s">
+    <row r="59" spans="6:7">
+      <c r="F59" t="s">
         <v>123</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
-      <c r="D68" t="s">
+    <row r="60" spans="6:7">
+      <c r="F60" t="s">
         <v>124</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
-      <c r="D69" t="s">
+    <row r="61" spans="6:7">
+      <c r="F61" t="s">
         <v>125</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
-      <c r="D70" t="s">
+    <row r="62" spans="6:7">
+      <c r="F62" t="s">
         <v>126</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
-      <c r="D71" t="s">
+    <row r="63" spans="6:7">
+      <c r="F63" t="s">
         <v>127</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
-      <c r="D72" t="s">
+    <row r="64" spans="6:7">
+      <c r="F64" t="s">
         <v>128</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
-      <c r="D73" t="s">
+    <row r="65" spans="6:7">
+      <c r="F65" t="s">
         <v>129</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
-      <c r="D74" t="s">
+    <row r="66" spans="6:7">
+      <c r="F66" t="s">
         <v>130</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G66" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
-      <c r="D75" t="s">
+    <row r="67" spans="6:7">
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G67" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
-      <c r="D76" t="s">
+    <row r="68" spans="6:7">
+      <c r="F68" t="s">
         <v>132</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G68" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
-      <c r="D77" t="s">
+    <row r="69" spans="6:7">
+      <c r="F69" t="s">
         <v>133</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
-      <c r="D78" t="s">
+    <row r="70" spans="6:7">
+      <c r="F70" t="s">
         <v>134</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G70" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7">
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7">
+      <c r="F74" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7">
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7">
+      <c r="F76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7">
+      <c r="F77" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2116,110 +2264,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="183.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="183.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -2231,18 +2407,21 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:I4">
+  <conditionalFormatting sqref="A1:L4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="11">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -2250,22 +2429,31 @@
       <formula1>AND(LEN(B5)&gt;0, CODE(LEFT(B5,1))&gt;=65, CODE(LEFT(B5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
-      <formula1>HiddenDropdowns!$D$5:$D$78</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>HiddenDropdowns!$E$5:$E$78</formula1>
+      <formula1>AND(LEN(C5)&gt;0, CODE(LEFT(C5,1))&gt;=65, CODE(LEFT(C5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
+      <formula1>HiddenDropdowns!$F$5:$F$78</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
+      <formula1>HiddenDropdowns!$G$5:$G$78</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
-      <formula1>AND(ISNUMBER(SEARCH("T", G5)), ISNUMBER(DATEVALUE(LEFT(G5, FIND("T", G5)-1))))</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
-      <formula1>AND(ISNUMBER(I5+0), I5&gt;=-180, I5&lt;=180)</formula1>
+      <formula1>AND(ISNUMBER(SEARCH("T", I5)), ISNUMBER(DATEVALUE(LEFT(I5, FIND("T", I5)-1))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
+      <formula1>AND(ISNUMBER(K5+0), K5&gt;=-180, K5&lt;=180)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(L5, ROW(INDIRECT("1:"&amp;LEN(L5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,233 +2497,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2651,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2660,62 +2848,152 @@
     <col min="1" max="1" width="98.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="128" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="122" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="131.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>235</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>260</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -2723,18 +3001,27 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="14">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -2747,8 +3034,35 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(F5, ROW(INDIRECT("1:"&amp;LEN(F5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="I5:I1005">
+      <formula1>"Oligo-Dt,Random"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="J5:J1005">
       <formula1>"3',5',Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="K5:K1005">
+      <formula1>"3,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="L5:L1005">
+      <formula1>"Antisense,Both,Sense,Unstranded"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="M5:M1005">
+      <formula1>"No,Yes"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(N5, ROW(INDIRECT("1:"&amp;LEN(N5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2783,170 +3097,170 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3061,98 +3375,98 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3213,4 +3527,96 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="C5:C1005">
+      <formula1>"Fail,Pass"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>"Cluster,Count,Gene,Tsne Coordinates,Umi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>